--- a/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{84C4B42D-2C91-4E05-855F-32155FBF7E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D03CAB7-3701-41A5-AFC5-00BA18565489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -46,12 +46,205 @@
   </si>
   <si>
     <t>Targetted Morboid Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 770</t>
+  </si>
+  <si>
+    <t>Maharashtrian Patal Bhaji, Paatal Bhaji</t>
+  </si>
+  <si>
+    <t>Kids Weight Loss</t>
+  </si>
+  <si>
+    <t>For Maharashtrian Patal Bhaji
+2 1/2 cups chopped colocassia leaves (arbi ke patte)
+1/4 cup chana dal (split bengal gram) , washed and drained
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+2 tsp tamarind (imli) pulp
+1 tbsp chopped jaggery (gur)
+2 tbsp roasted and coarsely crushed peanuts
+salt to taste
+To Be Ground Into A Smooth Paste ( Without Using Any Water)
+2 tbsp grated coconut
+1 1/2 tsp roughly chopped green chillies
+1/4 cup chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>21 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the chana dal, colocassia leaves and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a non-stick kadhai, add the mustard seeds, cumin seeds, asafoetida and sauté on a medium flame for a few seconds.
+Add the prepared paste and sauté on a medium flame for 2 minutes.
+Add the chana dal-colocassia leaves mixture, tamarind pulp, jaggery, peanuts and salt, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 164 cal
+Protein 5.6 g
+Carbohydrates 16.1 g
+Fiber 4.1 g
+Fat 8.9 g
+Cholesterol 0 mg
+Sodium 12.5 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCOS recipes
+</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/maharashtrian-patal-bhaji-paatal-bhaji-770r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 763</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>Antioxidant Rich Indian</t>
+  </si>
+  <si>
+    <t>For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5596</t>
+  </si>
+  <si>
+    <t>Date and Walnut Balls</t>
+  </si>
+  <si>
+    <t>High Fiber</t>
+  </si>
+  <si>
+    <t>For Date and Walnut Balls
+1/2 cup finely chopped black seedless dates
+2 tbsp finely chopped walnuts (akhrot)
+1/4 tsp cardamom (elaichi) powder</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Method
+For date and walnut balls
+To make date and walnut balls, combine all the ingredients in a deep bowl and mix well till the mixture binds well like a dough.
+Divide the mixture into 8 portions and shape each portion into a round ball.
+Serve the date and walnut balls immediately or store refrigerated in an air-tight container and serve it within 30 days.</t>
+  </si>
+  <si>
+    <t>Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+Fiber 1 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3544</t>
+  </si>
+  <si>
+    <t>Jowar and Vegetable Porridge</t>
+  </si>
+  <si>
+    <t>Diabetes and Healthy Heart</t>
+  </si>
+  <si>
+    <t>For Jowar and Vegetable Porridge
+1/2 cup coarsely powdered peanuts
+salt to taste
+1 tsp oil
+1 cup chopped mixed vegetables (french beans ,
+carrot , and cauliflower)
+1/2 tsp mustard seeds ( rai / sarson)
+a pinch of asafoetida (hing)
+For The Topping
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped onions
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+For jowar and vegetable porridge
+Combine the powdered jowar, salt with 3 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Heat the oil in a deep pan and add the mustard seeds and asafoetida.
+When the mustard seeds crackle, add the mixed vegetables and sauté on a medium flame for 3 to 4 minutes.
+Add the cooked jowar mixture, 1½ cups of water and salt, mix well and simmer for 8 to 10 minutes, while stirring occasionally.
+Top with the tomato, onion and coriander and serve immediately.
+Handy tips
+To get ½ cup of coarsely ground jowar, grind ½ cup of jowar in a mixer to a coarse powder.
+If the porridge becomes too thick while serving, adjust its consistency by some adding some water.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 3.3 g
+Carbohydrates 18.6 g
+Fiber 3.7 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
@@ -405,58 +598,178 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="39" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="39.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D03CAB7-3701-41A5-AFC5-00BA18565489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574F545-6A05-4C38-8DBE-60A5DAA1FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +16,11 @@
     <sheet name="NutsAllergyToAdd" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -239,12 +243,14 @@
   <si>
     <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
   </si>
+  <si>
+    <t>No of Reccipes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,17 +598,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="39.0"/>
+    <col min="1" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -636,7 +658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -653,7 +675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -670,7 +692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -687,7 +709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -704,7 +726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -721,7 +743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -738,7 +760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -755,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>

--- a/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574F545-6A05-4C38-8DBE-60A5DAA1FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD003413-B839-4B31-BF09-340EFC47C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="417">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -190,6 +190,1196 @@
     <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1328</t>
+  </si>
+  <si>
+    <t>Apple and Oats Milkshake</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism Diet</t>
+  </si>
+  <si>
+    <t>For Apple and Oats Milkshake
+3/4 cup chilled apple cubes
+1 1/2 cups chilled almond milk
+1/4 cup quick cooking rolled oats</t>
+  </si>
+  <si>
+    <t>Method
+For apple and oats milkshake
+To make apple oats milkshake, combine all the ingredients in a mixer and blend till smooth and frothy.
+Pour equal quantities of the apple and oats milkshake into 3 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 56 cal
+Protein 1.7 g
+Carbohydrates 8.2 g
+Fiber 2.1 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 44.1 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPERTENSION
+</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-oats-milkshake-1328r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1469</t>
+  </si>
+  <si>
+    <t>Banana and Cucumber Salad</t>
+  </si>
+  <si>
+    <t>Pregnancy Fiber Rich</t>
+  </si>
+  <si>
+    <t>For Banana and Cucumber Salad
+2 cups banana cubes
+2 cups cucumber cubes
+2 tsp finely chopped green chillies
+1/4 cup roughly chopped raw peanuts
+2 tbsp finely chopped coriander (dhania)
+2 tbsp grated fresh coconut
+2 tsp lemon juice
+1 tsp honey or powdered sugar (optional)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For banana and cucumber salad
+To make banana and cucumber salad, combine all the ingredients except the lemon juice and salt in a deep bowl and mix well.
+Cover with a cling wrap and chill for a maximum of 30 minutes or bananas will turn black.
+Add the lemon juice and salt and toss well.
+Serve the banana and cucumber salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 189 cal
+Protein 4 g
+Carbohydrates 28.2 g
+Fiber 5.3 g
+Fat 6.9 g
+Cholesterol 0 mg
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/banana-and-cucumber-salad-1469r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41117</t>
+  </si>
+  <si>
+    <t>How To Make Almond Butter At Home</t>
+  </si>
+  <si>
+    <t>Kids Brain Boosting</t>
+  </si>
+  <si>
+    <t>For Almond Butter
+2 1/4 cups almonds (badam)
+1 tbsp organic coconut oil
+1/4 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Method
+For almond butter
+To make almond butter recipe, dry roast almonds in a broad non-stick pan for 5 minutes on a medium flame, while stirring occasionally.
+Remove in a plate and allow it to cool completely.
+Once cooled, keep aside ¼ cup of roasted almonds and coarsely crush them in a mortar pestle.
+Transfer the remaining roasted almonds in a big mixer.
+Blend for 5 to 7 minutes until it become thick paste.
+Add the coconut oil and sea salt and blend again for 3 to 4 minutes or till smooth.
+Remove in a deep bowl and add the coarsely crushed roasted almonds and mix well.
+Serve homemade almond butter or store in an airtight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 2.8 g
+Carbohydrates 2.6 g
+Fiber 1.6 g
+Fat 8.7 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-make-almond-butter-at-home-41117r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42406</t>
+  </si>
+  <si>
+    <t>Apple and Banana Steel Cut Oats, Oatmeal</t>
+  </si>
+  <si>
+    <t>Iron Rich Indian Breakfast</t>
+  </si>
+  <si>
+    <t>For Apple and Banana Steel Cut Oats
+1/2 cup chopped apple
+1/4 cup chopped bananas
+1/2 cup soaked and cooked steel cut oats
+1/2 cup unsweetened almond milk
+1/4 tsp vanilla extract or vanilla essence
+2 tsp chopped , toasted walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>Method
+For apple and banana steel cut oats
+To make apple and banana steel cut oats, combine all the ingredients in a deep bowl like cooked steel cut oats, unsweetened almond milk, vanilla extract, apples, banana and walnuts.
+Pour the mixture in a serving bowl and top it up with apples, banana and walnuts evenly over it.
+Serve the apple and banana steel cut oatmeal immediately or chill in the refrigerator for 2 hours and then serve.</t>
+  </si>
+  <si>
+    <t>Energy 262 cal
+Protein 8.1 g
+Carbohydrates 39.2 g
+Fiber 6 g
+Fat 8.1 g
+Cholesterol 0 mg
+Sodium 27.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-banana-steel-cut-oats-oatmeal-42406r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42389</t>
+  </si>
+  <si>
+    <t>Strawberry Steel Cut Oats</t>
+  </si>
+  <si>
+    <t>Low Veg Glycemic Index</t>
+  </si>
+  <si>
+    <t>For Strawberry Steel Cut Oats
+1/2 cup steel cut oats
+3/4 cup strawberry cubes
+1/2 cup unsweetened almond milk
+1/4 tsp vanilla extract or vanilla essence
+2 tsp maple syrup
+1 tbsp roasted almonds (badam) halves</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+For strawberry steel cut oats
+To make strawberry steel cut oats, soak the steel cut oats in a deep bowl in enough water for 8 hours or overnight. Drain well.
+Boil 1 cup of water in a deep non-stick pan, add the soaked and drained oats and mix well. Cover it with a lid and cook on a medium slow flame for 8 to 10 minutes, while stirring occasionally.
+Transfer the mixture into a deep bowl and cool it completely.
+Add the almond milk, vanilla essence, maple syrup and ½ cup of strawberries and mix well.
+Finally top it with the remaining ¼ cup of strawberries and roasted almonds.
+Serve the strawberry steel cut oats immediately or store in the fridge.</t>
+  </si>
+  <si>
+    <t>Energy 242 cal
+Protein 8.7 g
+Carbohydrates 39.1 g
+Fiber 6.3 g
+Fat 6.1 g
+Cholesterol 0 mg
+Sodium 15.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-steel-cut-oats-42389r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41116</t>
+  </si>
+  <si>
+    <t>Homemade Peanut Butter, for Weight Loss and Athletes</t>
+  </si>
+  <si>
+    <t>Healthy Foods for Kids</t>
+  </si>
+  <si>
+    <t>For Homemade Peanut Butter
+2 1/4 cups unsalted roasted peanuts , peeled
+1 tbsp organic coconut oil
+1/8 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+For homemade peanut butter
+To make homemade peanut butter, in a broad pan, dry roast almonds on a slow flame for 5 minutes, while stirring occasionally.
+Transfer it into a big plate and allow it to cool completely.
+Once cooled, transfer 1/4 cup of roasted peanuts in the mortar pestle and coarsely crush them.
+Transfer the remaining 2 cups of roasted peanuts in a mixer jar, add coconut oil and sea salt to taste.
+Blend to a smooth paste. Transfer into a bowl and add the coarsely crushed peanuts. Mix well.
+Store in an air tight bottle at room temperature for 15 days.
+Use homemade peanut butter as required.</t>
+  </si>
+  <si>
+    <t>Energy 67 cal
+Protein 2.8 g
+Carbohydrates 1.8 g
+Fiber 0.9 g
+Fat 5.9 g
+Cholesterol 0 mg
+Sodium 2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/homemade-peanut-butter-for-weight-loss-and-athletes-41116r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4795</t>
+  </si>
+  <si>
+    <t>Mixed Dal with Spinach and Kabuli Chana</t>
+  </si>
+  <si>
+    <t>Dal for lunch, Indian lentils for lunch</t>
+  </si>
+  <si>
+    <t>For Mixed Dal With Spinach and Kabuli Chana
+2 tbsp chana dal (split bengal gram) , soaked for 2 hours and drained
+2 tbsp masoor (split red lentil) dal , soaked for 2 hours and drained
+2 tbsp yellow moong dal (split yellow gram) , soaked for 2 hours and drained
+3 cups finely chopped spinach (palak)
+1/4 cup kabuli chana (white chick peas) , soaked overnight and drained
+1/4 tsp turmeric powder (haldi)
+1 tbsp oil
+1/2 cup chopped tomatoes
+1/2 cup chopped cabbage
+1 tsp ginger-green chilli paste
+1 tsp sugar
+1 tbsp lemon juice
+salt to taste
+To Be Ground Into A Smooth Paste (using 1/4 Cup Of Water)
+2 tbsp broken cashew nuts (kaju)
+2 tbsp freshly grated coconut
+2 whole dry kashmiri red chillies , broken into pieces
+1 tsp coriander (dhania) seeds
+2 cloves (laung / lavang)
+1 tsp poppy seeds (khus-khus)
+1 tbsp oil
+For Serving With Mixed Dal With Spinach and Kabuli Chana
+parathas/ rotis</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>Method
+For mixed dal with spinach and kabuli chana
+To make mixed dal with spinach and kabuli chana, combine the dals, kabuli chana, turmeric powder, salt and 2 cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan, add the prepared paste and sauté on a medium flame for 1 minute.
+Add the tomatoes and 2 tbsp of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the cabbage, spinach, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the cooked dal mixture, little salt and sugar, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the mixed dal with spinach and kabuli chana hot with parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 171 cal
+Protein 5.4 g
+Carbohydrates 14.3 g
+Fiber 4.6 g
+Fat 10.2 g
+Cholesterol 0 mg
+Sodium 33.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-dal-with-spinach-and-kabuli-chana-4795r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40984</t>
+  </si>
+  <si>
+    <t>Almond Milk, Homemade Pure Almond Milk</t>
+  </si>
+  <si>
+    <t>Healthy Indian Breakfast</t>
+  </si>
+  <si>
+    <t>For Almond Milk
+1 cup almonds (badam)
+4 cups cold water
+1 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Method
+For almond milk
+To make indian almond milk, combine all the ingredients in a mixer and blend till smooth. We recommend a high quality blender like a bullet blender / vitamix. If the quality of the blender is not good, the milk will not be smooth and there will be small almond pieces left.
+Refrigerate and serve chilled. It stays fresh for 3 days.</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 4.2 g
+Carbohydrates 3.9 g
+Fiber 2.4 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-milk-homemade-pure-almond-milk-40984r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42149</t>
+  </si>
+  <si>
+    <t>Oatmeal Almond Milk with Apples, Healthy Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>For Oatmeal Almond Milk With Apples
+1/2 cup quick cooking rolled oats
+1 cup almonds (badam) milk
+1 tbsp peanut butter
+1 tsp maple syrup , optional
+1 tbsp finely chopped dates (khajur)
+1 tsp chia seeds
+1/4 cup chopped apple</t>
+  </si>
+  <si>
+    <t>Method
+Combine the oats, almond milk, peanut butter and maple syrup in a jar and mix well using a whisk.
+Add the dates and chia seeds and mix well.
+Close the jar with a lid and refrigerate for atleast 4 hours.
+Just before serving, open the lid, top it with the apples and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 407 cal
+Protein 8.4 g
+Carbohydrates 37.9 g
+Fiber 8.1 g
+Fat 24.6 g
+Cholesterol 55 mg
+Sodium 271.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oatmeal-almond-milk-with-apples-healthy-vegan-breakfast-42149r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42508</t>
+  </si>
+  <si>
+    <t>Healthy Oats Vegan Granola Bars with Peanut Butter</t>
+  </si>
+  <si>
+    <t>Vitamin B9 Rich Folate</t>
+  </si>
+  <si>
+    <t>For Healthy Oats Vegan Granola Bars With Peanut Butter
+1 1/2 cups quick cooking rolled oats
+3/4 cup homemade peanut butter
+1/4 cup sliced almonds (badam)
+1/4 cup cacao nibs
+2 tbsp maple syrup or honey
+2 tbsp roasted flax seeds
+1 tbsp coconut oil
+1/4 tsp vanilla essence
+a pinch of salt</t>
+  </si>
+  <si>
+    <t>Method
+For healthy oats peanut butter bar
+To make indian style oats granola bar with peanut butter, combine all the ingredients in a deep bowl and mix well.
+Line a tray with a butter paper, put the mixture into it and using your palm or spoon press it out to form a square.
+Refrigerate for atleast 1 hour.
+Cut into 6 equal rectangular bars using a sharp knife.
+Store the indian style oats granola bar with peanut butter in an air-tight container in the refrigerator and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 194 cal
+Protein 5.8 g
+Carbohydrates 20.9 g
+Fiber 4.9 g
+Fat 10.8 g
+Cholesterol 0 mg
+Sodium 10.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-oats-vegan-granola-bars-with-peanut-butter-42508r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42265</t>
+  </si>
+  <si>
+    <t>Quinoa Veg Upma, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>Low Cholesterol</t>
+  </si>
+  <si>
+    <t>For Quinoa Veg Upma
+1/2 cup quinoa , washed and drained
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+4 curry leaves (kadi patta)
+2 tbsp raw peanuts
+1/2 cup finely chopped onions
+1/2 cup green peas
+1/4 cup finely chopped carrot
+1/4 tsp chilli powder
+salt to taste
+1/4 cup finely chopped coriander (dhania)
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 5.3 g
+Carbohydrates 22.8 g
+Fiber 6.9 g
+Fat 5.1 g
+Cholesterol 0 mg
+Sodium 5.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42346</t>
+  </si>
+  <si>
+    <t>Vegan Oats and Coconut Milk Pudding</t>
+  </si>
+  <si>
+    <t>High Blood Pressure</t>
+  </si>
+  <si>
+    <t>1/2 cup quick cooking rolled oats
+1 1/4 cups coconut milk (nariyal ka doodh)
+1 1/2 tbsp peanut butter
+1 tsp maple syrup or honey
+1/2 tsp vanilla essence
+For Garnish
+1 tbsp almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredient in a mixer and blend it till smooth.
+Pour the mixture in a deep bowl, cover it with a lid and keep it in the refrigerator to set for 24 hours.
+Garnish it with almond and serve.</t>
+  </si>
+  <si>
+    <t>Energy 355 cal
+Protein 3.2 g
+Carbohydrates 19.7 g
+Fiber 2 g
+Fat 29 g
+Cholesterol 41.2 mg
+Sodium 141 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegan-oats-and-coconut-milk-pudding-42346r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40444</t>
+  </si>
+  <si>
+    <t>Grapefruit and Green Apple Salad</t>
+  </si>
+  <si>
+    <t>2 1/2 cups grapefruit segments
+1 1/2 cups green apple/ red apple cubes
+2 tbsp chopped walnuts (akhrot)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>No nutritional value is found</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grapefruit-and-green-apple-salad-40444r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41121</t>
+  </si>
+  <si>
+    <t>Almond Bhakri, Gluten Free Almond Bhakri</t>
+  </si>
+  <si>
+    <t>Zinc Rich Foods</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam) , soaked for 1 hour in hot and drained
+2 tsp ghee
+salt to taste
+ghee for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+Peel the almonds.
+Blend the almonds in a mixer to a smooth mixture without using any water.
+Transfer the mixture into a deep bowl, add the ghee and salt and mix well to make a dough without using any water.
+Divide the dough into 6 equal portions.
+Grease the rolling board with ghee, put a portion of the dough and pat it to make a 100 mm. (4”) dimeter circle without using any flour.
+Heat a non-stick tava (griddle) and cook the bhakri using ghee till it turns golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 5 more bhakris.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 3.5 g
+Carbohydrates 3.2 g
+Fiber 2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39024</t>
+  </si>
+  <si>
+    <t>Healthy Strawberry Milkshake, Indian Strawberry Milkshake with Almond Milk</t>
+  </si>
+  <si>
+    <t>Quick Breakfast Indian</t>
+  </si>
+  <si>
+    <t>For Healthy Strawberry Milkshake
+1 cup chopped strawberries
+2 cups chilled almond milk
+1 tsp honey
+For The Garnish
+1/4 cup finely chopped strawberries</t>
+  </si>
+  <si>
+    <t>Method
+For healthy strawberry milkshake
+To make healthy strawberry milkshake, combine all the ingredients in a mixer and blend it till smooth.
+Pour equal quantities of the milkshake into 3 individual glasses.
+Garnish the healthy strawberry milkshake with strawberries and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 54 cal
+Protein 1.2 g
+Carbohydrates 8 g
+Fiber 2 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 48.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-strawberry-milkshake-indian-strawberry-milkshake-with-almond-milk-39024r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22216</t>
+  </si>
+  <si>
+    <t>Gajar Fansi Sabzi</t>
+  </si>
+  <si>
+    <t>Vitamin A Rich, Beta Carotene, Retinol</t>
+  </si>
+  <si>
+    <t>For Gajar Fansi Sabzi
+1 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/2 tsp garam masala
+2 cups chopped french beans
+1 cup chopped carrot
+salt to taste
+2 tbsp roasted and coarsely crushed peanuts
+2 tbsp chopped coriander (dhania)
+2 tsp coconut oil or oil</t>
+  </si>
+  <si>
+    <t>Method
+For gajar fansi sabzi
+To make gajar fansi sabzi, heat coconut oil or oil in a deep non-stick pan.
+Add the cumin seeds. After they crackle, add onions, ginger garlic paste and saute till golden brown.
+Add chilli powder, haldi, garam masala and cook for 30 seconds.
+Add french beans, carrots, 1 cup of water, salt and mix well.
+Cover with a lid and and cook on medium heat for 10 minutes till vegetables are tender.
+Add crushed peanuts, coriander and mix well.
+Cook on medium heat for 1 minute.
+Serve gajar fansi sabzi hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 102 cal
+Protein 3.3 g
+Carbohydrates 10.1 g
+Fiber 3.6 g
+Fat 5.6 g
+Cholesterol 0 mg
+Sodium 19.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gajar-fansi-sabzi-22216r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41920</t>
+  </si>
+  <si>
+    <t>Oats Bhel, Healthy Snack for Kids</t>
+  </si>
+  <si>
+    <t>Easy, Simple Indian Snacks</t>
+  </si>
+  <si>
+    <t>For Oats Bhel
+1 1/2 cups quick cooking rolled oats
+1/2 cup thin beaten rice (poha)
+2 tbsp oil
+2 tbsp raw peanuts
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+1 tsp chaat masala
+1/2 tsp lemon juice
+1 1/2 tbsp green chutney
+1 tbsp sweet chutney
+1/4 cup pomegranate (anar)</t>
+  </si>
+  <si>
+    <t>Method
+For oats bhel
+To make oats bhel, combine the oats and poha in a broad non-stick pan and dry roast on a medium flame for 5 minutes. Remove and keep aside.
+Heat the oil in the same broad non-stick pan, add the peanuts and sauté on a medium flame for 1 to 2 minutes.
+Add the oats-poha mixture, turmeric powder and salt and sauté on a medium flame for 3 minutes. Keep aside to cool completely.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and toss well.
+Serve the oats bhel immediately.</t>
+  </si>
+  <si>
+    <t>Energy 298 cal
+Protein 7.7 g
+Carbohydrates 37.9 g
+Fiber 5 g
+Fat 13.1 g
+Cholesterol 0 mg
+Sodium 4.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-bhel-healthy-snack-for-kids-41920r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41134</t>
+  </si>
+  <si>
+    <t>Almond Berry and Coconut Cake, For Fitness and Weight Loss</t>
+  </si>
+  <si>
+    <t>Pregnancy International</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam)
+1/4 tsp sea salt
+1/4 cup coconut oil
+3 tbsp honey
+1 tsp vanilla extract
+1/2 cup freshly grated coconut
+1/2 cup pumpkin seeds
+1/2 cup sunflower seeds (surajmukhi ke beej)
+1/4 cup almond (badam) slivers
+1/4 cup frozen blueberries
+coconut oil for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Soak the almonds in enough hot water, cover with a lid and keep aside for 1 hour. Drain and peel them.
+Blend in a mixer along with the sea salt and blend well. Keep aside.
+Combine the coconut oil, honey, vanilla essence, 1 tbsp of water in a deep bowl and mix well using a spatula.
+Add all the other ingredients including the almond mixture and mix very well using a spatula.
+Grease a 175 mm. ( 7”) diameter aluminium tin with coconut oil, put the mixture into it and even it out using a spatula. Bake in a pre-heated oven at 200ºc (400ºf) for 20 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 388 cal
+Protein 8.6 g
+Carbohydrates 18.1 g
+Fiber 2.8 g
+Fat 32.3 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-berry-and-coconut-cake-for-fitness-and-weight-loss-41134r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42505</t>
+  </si>
+  <si>
+    <t>Black Raspberry and Gooseberry Oatmeal Recipe</t>
+  </si>
+  <si>
+    <t>Phosphorus Rich Foods</t>
+  </si>
+  <si>
+    <t>1/4 cup black raspberry
+1/4 cup roughly chopped gooseberries
+1/2 cup quick cooking rolled oats
+3/4 cup almond milk
+1 tsp honey
+1 tbsp roasted almond halves</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients, except the roasted almonds in a deep bowl and mix well.
+Refrigerate for atleast 1 hour and serve chilled topped with roasted almonds.</t>
+  </si>
+  <si>
+    <t>Energy 279 cal
+Protein 9.9 g
+Carbohydrates 40.2 g
+Fiber 9.1 g
+Fat 9.9 g
+Cholesterol 0 mg
+Sodium 55.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/black-raspberry-and-gooseberry-oatmeal-recipe-42505r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42464</t>
+  </si>
+  <si>
+    <t>Homemade Natural Hazelnut Butter</t>
+  </si>
+  <si>
+    <t>Magnesium Rich Indian Breakfast</t>
+  </si>
+  <si>
+    <t>1 1/2 cups hazelnuts
+2 tsp cinnamon (dalchini) powder
+1/2 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>Method
+Spread the hazelnuts on a baking tray and bake it in a pre-heated oven at 180°c (360°f) for 8 minutes.
+Cool it slightly and blend it in a mixer till smooth while it is still warm. It takes 2 to 3 minutes to blend.
+Add the cinnamon and sea salt and blend it for few more seconds.
+Cool it completely and store it in an air-tight and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 141 cal
+Protein 3.7 g
+Carbohydrates 4.1 g
+Fiber 1.4 g
+Fat 13.7 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/homemade-natural-hazelnut-butter-42464r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41608</t>
+  </si>
+  <si>
+    <t>Apple Almond and Celery Salad with Honey Mustard Dressing</t>
+  </si>
+  <si>
+    <t>Marathoners, Endurance Athletes, Triathlete</t>
+  </si>
+  <si>
+    <t>1 cup apple cubes (unpeeled)
+1/4 cup roughly chopped almonds (badam)
+1/4 cup finely chopped celery
+To Be Mixed Into A Honey Mustard Dressing
+1/2 tsp honey
+1 tsp mustard (rai / sarson) paste
+1/4 cup chilled curds (dahi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Put the almonds in a small non-stick pan and roast them on a medium flame for 5 minutes, while tossing occasionally.
+Cool completely and keep aside.
+Combine all ingredients in a deep bowl and mix well.
+Add the dressing and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 201 cal
+Protein 8.4 g
+Carbohydrates 25 g
+Fiber 10.1 g
+Fat 12.9 g
+Cholesterol 0 mg
+Sodium 32.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-almond-and-celery-salad-with-honey-mustard-dressing-41608r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42390</t>
+  </si>
+  <si>
+    <t>Apple Steel Cut Oatmeal with Almond Milk</t>
+  </si>
+  <si>
+    <t>For Apple Steel Cut Oatmeal With Almond Milk
+3/4 cup green apple cubes
+1/4 cup steel cut oats
+1/8 tsp cinnamon (dalchini) powder
+1/2 cup unsweetened almond milk
+1/4 tsp vanilla extract
+1 tsp maple syrup
+1 tbsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>Method
+For apple steel cut oatmeal with almond milk
+Soak the steel cut oats in a deep bowl in enough water for 8 hours. Drain well.
+Boil 1 cup of water in a deep non-stick pan, add the soaked and drained oats and mix well. Cover it with a lid and cook on a medium slow flame for 6 minutes, while stirring occasionally.
+Transfer the mixture into a deep bowl and cool it completely.
+Add the almond milk, vanilla extract or essence, maple syrup and ½ cup of green apples and mix well.
+Finally top it with the remaining ¼ cup of apples and roasted pumpkin seeds.
+Serve apple steel cut oatmeal with almond milk immediately or store in the fridge.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-steel-cut-oatmeal-with-almond-milk-42390r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42347</t>
+  </si>
+  <si>
+    <t>Strawberry Oats Pudding</t>
+  </si>
+  <si>
+    <t>Healthy Heart</t>
+  </si>
+  <si>
+    <t>For Strawberry Oats Pudding
+1/2 cup quick cooking rolled oats
+1/2 cup chopped strawberries
+1 cup almond milk</t>
+  </si>
+  <si>
+    <t>Method
+For strawberry oats pudding
+To make strawberry oats pudding, combine the oats, strawberry and almond milk in a deep bowl.
+Mix well, cover it with a lid and refrigerate it for overnight.
+Serve the strawberry oats pudding chilled.</t>
+  </si>
+  <si>
+    <t>Energy 107 cal
+Protein 4 g
+Carbohydrates 16.9 g
+Fiber 3.5 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 36.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-oats-pudding-42347r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42345</t>
+  </si>
+  <si>
+    <t>Strawberry Almond Milk and Oats Smoothie</t>
+  </si>
+  <si>
+    <t>1/2 cup frozen chopped strawberries
+1 cup chilled almond milk
+1/2 cup quick cooking rolled oats
+1 tsp maple syrup or honey</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer and blend it till smooth.
+Pour the smoothie in 2 individual glasses.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 118 cal
+Protein 4 g
+Carbohydrates 19.5 g
+Fiber 3.5 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 41.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-almond-milk-and-oats-smoothie-42345r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42189</t>
+  </si>
+  <si>
+    <t>Almond Honey Cinnamon Milk, Healthy Vegan Breakfast Recipe</t>
+  </si>
+  <si>
+    <t>20 almonds (badam)
+1 tsp organic honey
+1 small stick cinnamon (dalchini)
+1/4 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Method
+Combine the almonds, cinnamon, honey, vanilla essence and ¾ cup of cold water in a mixer and blend till smooth.
+We have used whole cinnamon stick instead of cinnamon powder, as it gives a correct taste and consistency to the milk.
+We recommend a high quality a bullet blender or a vitamix. If the quality of the blender is not good it will not be smooth and there will be small almond pieces left. We have also not strained the milk.
+Refrigerate till use and serve chilled. It lasts good in the fridge for 3 days we have tested it.</t>
+  </si>
+  <si>
+    <t>Energy 146 cal
+Protein 4.2 g
+Carbohydrates 6.2 g
+Fiber 0.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-honey-cinnamon-milk-healthy-vegan-breakfast-recipe-42189r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42140</t>
+  </si>
+  <si>
+    <t>Blueberry Avocado Vegan Smoothie, Healthy Breakfast</t>
+  </si>
+  <si>
+    <t>Potassium Rich</t>
+  </si>
+  <si>
+    <t>1/2 cup frozen blueberries
+1/4 cup roughly chopped ripe avocado
+1 cup readymade chilled almond milk
+1/2 tbsp maple syrup
+1/4 tsp vanilla essence
+5 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer and blend till smooth.
+Serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 96 cal
+Protein 1.2 g
+Carbohydrates 10.5 g
+Fiber 1.6 g
+Fat 5.9 g
+Cholesterol 0 mg
+Sodium 42.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/blueberry-avocado-vegan-smoothie-healthy-breakfast-42140r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42111</t>
+  </si>
+  <si>
+    <t>Avocado Spinach Vegan Smoothie Recipe, Healthy Smoothie</t>
+  </si>
+  <si>
+    <t>Manganese Diet</t>
+  </si>
+  <si>
+    <t>1 cup roughly chopped spinach (palak)
+1/2 cup roughly chopped ripe avocado
+2 cups readymade almond milk
+1 tbsp maple syrup
+a pinch of sea salt (khada namak)
+1/4 tsp vanilla essence
+10 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer and blend till smooth.
+Refrigerate and serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 101 cal
+Protein 1.7 g
+Carbohydrates 6.3 g
+Fiber 1.2 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 70.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-spinach-vegan-smoothie-recipe-healthy-smoothie-42111r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 279</t>
+  </si>
+  <si>
+    <t>Mushroom Curry, Indian Mushroom Masala Curry</t>
+  </si>
+  <si>
+    <t>For Mushroom Curry
+2 cups blanched and thinly sliced mushrooms (khumbh)
+2 tbsp oil
+2 cardamoms (elaichi)
+2 bayleaves (tejpatta)
+3 cloves (laung / lavang)
+1/2 tsp garam masala
+1/2 tsp chilli powder
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+3/4 cup beaten fresh curd (dahi)
+1/4 cup finely chopped coriander (dhania)
+salt to taste
+For The Paste
+1 cup roughly chopped onions
+6 garlic (lehsun) cloves
+12 mm piece ginger (adrak)
+2 tbsp broken cashew nut (kaju)</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Combine the onions and 1 cup of water in a deep vessel and cook on a medium flame till the onions turn soft. Keep aside to cool slightly.
+Add the garlic, ginger and cashewnuts and blend in a mixer to a smooth paste. Keep aside.
+How to proceed
+To make mushroom curry, heat the oil in a kadhai, add the cardamom, bayleaves and cloves and sauté on a medium flame for a few seconds.
+Add the paste and sauté on a medium flame for 2 to 3 minutes.
+Add the garam masala, chilli powder, ginger and green chillies, mix well and cook on a medium flame for 1 minute.
+Lower the flame, add the curds and mix well. Cook on a slow flame for 1 minute, while stirring continuously.
+Add the mushrooms, coriander, 1/2 cup water, salt, mix well and cook on a medium flame for another 1 to 2 minutes.
+Serve the mushroom curry hot.</t>
+  </si>
+  <si>
+    <t>Energy 160 cal
+Protein 3.6 g
+Carbohydrates 8 g
+Fiber 0.7 g
+Fat 12 g
+Cholesterol 6 mg
+Sodium 11.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-curry-indian-mushroom-masala-curry-279r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41697</t>
+  </si>
+  <si>
+    <t>Indian Style Peanut Butter Banana Oatmeal</t>
+  </si>
+  <si>
+    <t>For Indian Style Peanut Butter Banana Oatmeal
+1/4 cup peanut butter
+1 cup unsweetened almond milk
+1 cup quick cooking rolled oats
+1/2 cup mashed banana
+1 tbsp chia seeds
+1 tsp honey
+1/4 tsp cinnamon (dalchini) powder
+1/2 tsp vanilla extract
+For The Garnish
+1/4 cup sliced banana
+1 tbsp peanut butter
+a pinch cinnamon (dalchini) powder</t>
+  </si>
+  <si>
+    <t>Method
+For indian style peanut butter banana oatmeal
+To make peanut butter banana oatmeal, combine all the ingredients in a deep bowl and mix well.
+Pour into a steel air-tight container and cover with a plate.
+Chill in freezer for 1 hour or refrigerate for atleast 3 hours.
+Garnish one half of the side of the bowl with sliced bananas. Also garnish with peanut butter and cinnamon powder. Serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 518 cal
+Protein 10 g
+Carbohydrates 44.8 g
+Fiber 7.7 g
+Fat 32.9 g
+Cholesterol 81.2 mg
+Sodium 279.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/indian-style-peanut-butter-banana-oatmeal-41697r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22504</t>
+  </si>
+  <si>
+    <t>Kovalam Matar, Green Peas Cooked with Cashewnut and Coconut Paste</t>
+  </si>
+  <si>
+    <t>Soluble Fibre Indian Diet</t>
+  </si>
+  <si>
+    <t>1 cup boiled green peas
+2 tsp oil
+1 tsp urad dal (split black lentils)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+a pinch of turmeric powder (haldi)
+1/4 tsp cumin seeds (jeera) powder
+1/2 tsp coriander (dhania) powder
+1/2 tsp chilli powder
+salt to taste
+For The Paste
+1 tbsp cashewnuts (kaju)
+2 tbsp freshly grated coconut
+For The Garnish
+2 tsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Combine the cashewnuts and coconut in a microwave-safe bowl, mix well and microwave on high for 1 minute.
+Allow it to cool slightly and blend in a mixer to a smooth paste using 2 tbsp of water. Keep aside.
+How to proceed
+Combine the oil, urad dal, cumin seeds, ginger-garlic paste and onions in a deep microwave-safe bowl, mix well and microwave on high for 1 minute.
+Add the tomatoes, turmeric powder, cumin powder, coriander powder, chilli powder and 2 tsp of water, mix well and microwave on high for 1 minute.
+Add the prepared paste, green peas, salt and ¼ cup water, mix well and microwave on high for 1 more minute.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 202 cal
+Protein 7.2 g
+Carbohydrates 17.2 g
+Fiber 8.2 g
+Fat 11.6 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/kovalam-matar-green-peas-cooked-with-cashewnut-and-coconut-paste-22504r</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 3544</t>
   </si>
   <si>
@@ -213,9 +1403,6 @@
 2 tbsp finely chopped coriander (dhania)</t>
   </si>
   <si>
-    <t>15 mins</t>
-  </si>
-  <si>
     <t>25 mins</t>
   </si>
   <si>
@@ -244,7 +1431,1008 @@
     <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
   </si>
   <si>
-    <t>No of Reccipes</t>
+    <t xml:space="preserve"> 40971</t>
+  </si>
+  <si>
+    <t>Avocado and Feta Mash, Salad, Dip</t>
+  </si>
+  <si>
+    <t>Healthy quick Indian breakfast</t>
+  </si>
+  <si>
+    <t>For Avocado and Feta Mash
+1 cup riped avocado cubes
+5 tbsp crumbled soft feta cheese
+3/4 cup deseeded and chopped tomatoes
+1/2 cup finely chopped spring onions whites and greens
+1 tsp lemon juice
+salt and to taste
+For The Garnish
+2 tbsp roasted almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>Method
+Mash the avocado lightly using a potato masher.
+Transfer it in a deep bowl, add all the reamining ingredients and toss gently using a fork and a spoon.
+Garnish with almond slivers and serve immediately with toasted bread.</t>
+  </si>
+  <si>
+    <t>Energy 122 cal
+Protein 4 g
+Carbohydrates 6.1 g
+Fiber 3.2 g
+Fat 9.9 g
+Cholesterol 17.8 mg
+Sodium 229.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-feta-mash-salad-dip-40971r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40968</t>
+  </si>
+  <si>
+    <t>Water Chestnuts and Purple Cabbage Stir Fry</t>
+  </si>
+  <si>
+    <t>High Protein Indian recipes</t>
+  </si>
+  <si>
+    <t>For Water Chestnuts and Purple Cabbage Stir Fry
+2 cups peeled fresh water chestnut (singhada)
+1 cup shredded red cabbage
+2 tsp olive oil
+1 tbsp finely chopped garlic (lehsun)
+salt and to taste
+To Be Mixed Into A Dressing
+1 1/2 tbsp honey
+1 1/2 tsp dry red chilli flakes (paprika)
+1 tsp lemon juice
+For The Garnish
+2 tbsp roasted peanuts</t>
+  </si>
+  <si>
+    <t>Method
+Boil enough water in a deep non-stick pan, add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Drain well and keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
+Add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the cabbage, prepared dressing, salt and pepper, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately garnished with peanuts.</t>
+  </si>
+  <si>
+    <t>Energy 137 cal
+Protein 3.9 g
+Carbohydrates 24.6 g
+Fiber 2.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/water-chestnuts-and-purple-cabbage-stir-fry-40968r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22436</t>
+  </si>
+  <si>
+    <t>Palak, Methi and Corn Subzi</t>
+  </si>
+  <si>
+    <t>Kids Calcium Rich Indian recipes</t>
+  </si>
+  <si>
+    <t>For Palak , Methi and Corn Subzi
+1 cup blanched and chopped spinach (palak)
+1/2 cup chopped fenugreek (methi) leaves
+1/2 cup boiled sweet corn kernels (makai ke dane)
+1 tsp oil
+3 cardamoms (elaichi)
+2 cloves (laung / lavang)
+1 bayleaf (tejpatta)
+salt to taste
+1/2 tsp garam masala
+For The White Gravy
+2 tsp oil
+1 cup chopped onions
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1/4 tsp finely chopped green chillies
+1 tbsp broken cashew nuts (kaju)
+1/2 cup whisked curds (dahi)
+salt to taste
+For Serving With Palak , Methi and Corn Subzi
+whole wheat (gehun) parathas</t>
+  </si>
+  <si>
+    <t>Method
+For the white gravy
+Heat the oil in a deep non-stick pan, add the onions and sauté on a medium flame for 2 minutes or till they turn translucent.
+Add the ginger, garlic, green chillies and cashewnuts and sauté on a medium flame for 1 minute. Remove and keep aside to cool slightly.
+Blend in a mixer to a fine paste using 2 tbsp of water.
+Transfer the paste into a bowl, add the curds and salt and mix well. Keep aside.
+How to proceed
+Heat the oil in a non-stick kadhai, add the cardamom, cloves and bayleaf and sauté on a medium flame for a few seconds.
+Add the white gravy and sauté on a medium flame for another minute.
+Add the spinach, fenugreek, sweet corn, little salt and ½ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the garam masala, mix well and cook on a medium flame for another 30 seconds.
+Serve hot with whole wheat parathas.</t>
+  </si>
+  <si>
+    <t>Energy 119 cal
+Protein 3.4 g
+Carbohydrates 10.6 g
+Fiber 2 g
+Fat 6.7 g
+Cholesterol 4 mg
+Sodium 34.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/palak-methi-and-corn-subzi-22436r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40486</t>
+  </si>
+  <si>
+    <t>Cabbage and Spinach Salad, Healthy Carrot Spinach Salad</t>
+  </si>
+  <si>
+    <t>Arthritis Diet</t>
+  </si>
+  <si>
+    <t>For Cabbage and Spinach Salad
+1/2 cup shredded red cabbage
+1/2 cup shredded cabbage
+1/2 cup shredded spinach (palak)
+1/2 cup thickly grated carrot
+2 tbsp chopped walnuts (akhrot)
+To Be Mixed Together Into Garlicky Dressing
+1 tbsp finely chopped garlic (lehsun)
+2 tsp lemon juice
+1/4 tsp mustard (rai / sarson) powder
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For cabbage and spinach salad
+To make cabbage and spinach salad, combine all the ingredients along with the garlicky dressing in a deep bowl and toss well.
+Serve the cabbage and spinach salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.5 g
+Carbohydrates 4.9 g
+Fiber 2 g
+Fat 6.6 g
+Cholesterol 0 mg
+Sodium 16.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-and-spinach-salad-healthy-carrot-spinach-salad-40486r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33007</t>
+  </si>
+  <si>
+    <t>Low Calorie Apple Crumble</t>
+  </si>
+  <si>
+    <t>Non-stick Pan</t>
+  </si>
+  <si>
+    <t>For The Stewed Apples
+2 cups sliced apples
+1 tbsp brown sugar
+2 small sticks cinnamon (dalchini)
+1/2 tsp lemon juice
+For The Muesli
+1/4 cup quick cooking rolled oats
+1 tbsp wheat bran
+2 tbsp chopped walnuts (akhrot)
+1 tbsp chopped almonds (badam)
+2 tbsp raisins (kismis)
+1/4 tsp cinnamon (dalchini) powder
+vanilla essence
+Other Ingredients For Low Calorie Apple Crumble
+low fat butter for greasing</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the stewed apples
+Combine ½ cup of water, brown sugar, cinnamon sticks and lemon juice in a broad non-stick pan, mix well and cook on a medium flame for 30 seconds or till the brown sugar dissolves completely.
+Add the apples, mix well and cook on a medium flame for 7 to 8 minutes or till the apples turn soft, while stirring once in between.
+Discard the cinnamon and keep aside to cool slightly.
+For the muesli
+Combine all the ingredients in a broad non-stick pan and lightly roast them on a slow flame for 2 minutes. Keep aside to cool slightly.
+Transfer the mixture into a bowl and keep aside to cool slightly.
+How to proceed
+Grease a baking dish lightly using low-fat butter.
+Spread the stewed apples at the base of a baking dish and spread the muesli evenly over it.
+Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the muesli turns golden brown in colour.
+Serve the low calorie apple crumble immediately.</t>
+  </si>
+  <si>
+    <t>Energy 129 cal
+Protein 2.6 g
+Carbohydrates 15.9 g
+Fiber 2.1 g
+Fat 6.2 g
+Cholesterol 0 mg
+Sodium 13.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-calorie-apple-crumble-33007r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2928</t>
+  </si>
+  <si>
+    <t>Fig and Apricot Shake ( Pregnancy Recipe)</t>
+  </si>
+  <si>
+    <t>Calcium Rich Indian Recipes</t>
+  </si>
+  <si>
+    <t>For Fig and Apricot Shake
+5 slices dried figs (anjeer)
+4 dried apricots (khumani / jardalu) , deseeded and chopped
+1 1/4 cups milk
+14 ice-cubes
+1 tsp sugar , optional
+For The Garnish
+1 tbsp almonds (badam) slivers</t>
+  </si>
+  <si>
+    <t>Method
+For fig and apricot shake
+To make fig and apricot shake, soak the figs and apricots in ¼ cup of warm milk for at least ½ hour.
+Combine the soaked figs and apricots (with the milk), remaining 1 cup of milk, ice-cubes and sugar and blend in a mixer till smooth and frothy.
+Pour equal quantities of the shake into 2 individual glasses.
+Serve the fig and apricot shake immediately garnished with almonds.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 5.5 g
+Carbohydrates 13.1 g
+Fiber 0.2 g
+Fat 8.2 g
+Cholesterol 20 mg
+Sodium 24.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fig-and-apricot-shake--pregnancy-recipe-2928r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22171</t>
+  </si>
+  <si>
+    <t>Toovar Dal with Vegetables</t>
+  </si>
+  <si>
+    <t>Indian Party</t>
+  </si>
+  <si>
+    <t>1/4 cup toovar (arhar) dal , soaked for 2 hours and drained
+salt to taste
+1/2 tsp turmeric powder (haldi)
+1/4 cup yam (suran) cubes
+1 tbsp raw peanuts
+2 drumsticks , cut into 50 mm. (2") pieces
+5 to 6 curry leaves (kadi patta)
+1 tbsp grated jaggery (gur)
+1 tbsp tamarind (imli) pulp
+1 tsp ginger-green chilli paste
+1 tbsp finely chopped coriander (dhania)
+1/4 cup ladies finger (bhindi) (with edges trimmed)
+For Serving
+rice
+parathas</t>
+  </si>
+  <si>
+    <t>Method
+Combine the toovar dal, 1 cup of water, salt, turmeric powder, yam, peanuts and drumsticks, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Add 1 cup of water, mix well and mash with the back of a spoon.
+Add the curry leaves, jaggery, tamarind pulp, ginger-green chilli paste, coriander and ladies finger, mix well and cook on a slow flame for 5 to 7 minutes, while stirring occasionally.
+Serve hot with rice and parathas.</t>
+  </si>
+  <si>
+    <t>Energy 78 cal
+Protein 3.4 g
+Carbohydrates 12.7 g
+Fiber 1.7 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 4.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/toovar-dal-with-vegetables-22171r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42192</t>
+  </si>
+  <si>
+    <t>Homemade Almond Milk Made with Soaked Almonds</t>
+  </si>
+  <si>
+    <t>Low Carb Indian Juices Smoothies Drinks</t>
+  </si>
+  <si>
+    <t>For Homemade Almond Milk Made With Soaked Almonds
+20 almonds (badam)
+1/4 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Method
+To make homemade almond milk made with soaked almonds, combine the almonds and enough water in a deep bowl, cover with lid and keep aside to soak overnight. Drain.
+Combine the soaked almonds, do not peel them and add the vanilla essence and ¾ cup of cold water in a blender and blend very well. No need to strain the milk.
+We recommend a high quality a bullet blender or a vitamix. If the quality of the blender is not good it will not be smooth and there will be small almond pieces left. We have also not strained the milk.
+Refrigerate till use and serve chilled. It lasts good in the fridge for 3 days we have tested it.</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 4.2 g
+Carbohydrates 2.1 g
+Fiber 0.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetic,
+</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/homemade-almond-milk-made-with-soaked-almonds-42192r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39213</t>
+  </si>
+  <si>
+    <t>Roasted Capsicum and Alfalfa Sprouts Salad with Peanut Dressing</t>
+  </si>
+  <si>
+    <t>Sprouted Indian Salad recipes</t>
+  </si>
+  <si>
+    <t>2 cups alfalfa sprouts
+1 red capsicum , medium
+1 capsicum , green medium
+1 yellow capsicum , medium
+1/2 tsp oil for brushing
+salt to taste
+To Be Mixed Into A Peanut Dressing
+1/2 cup coarsely crushed roasted peanuts
+1 tbsp extra virgin olive oil
+1 tbsp lemon juice
+2 tsp dried mixed herbs
+1 tsp dry red chilli flakes (paprika)
+1/2 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>Method
+Method for capsicum alfalfa sprouts salad
+Pierce the red capsicum with a fork, brush a little oil evenly over it and roast it over an open flame till it turns black from all the sides.
+Cool, wash it in cold water and remove the burnt skin, stem and seeds and discard them. Cut the capsicum into cubes and keep aside.
+Repeat steps 1 and 2 for green and yellow capsicum.
+Prepare the peanut dressing and toss well.
+In a bowl put alfalfa sprouts and roasted green capsicum, red capsicum and yellow capsicum.
+Just before serving add the peanut dressing and toss well.
+Serve roasted capsicum and alfalfa sprouts salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 175 calories
+Protein 6.3 gm
+Carbohydrate 9.1 gm
+Fat 5.6 gm
+Fibre 4.0 mg
+Vitamin B1 0.3 mg
+Vitamin B3 3.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/roasted-capsicum-and-alfalfa-sprouts-salad-with-peanut-dressing-39213r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22197</t>
+  </si>
+  <si>
+    <t>Mushroom and Green Peas Curry</t>
+  </si>
+  <si>
+    <t>Low Calorie Sabzis</t>
+  </si>
+  <si>
+    <t>To Be Ground Into A Paste
+2 tbsp chopped cashewnuts (kaju)
+2 tbsp poppy seeds (khus-khus) , soaked in 2 tablespoons of water
+2 green chillies , roughly chopped
+2 cloves (laung / lavang)
+2 garlic (lehsun) cloves
+2 cardamoms (elaichi)
+1 tsp chopped ginger (adrak)
+Other Ingredients
+1/2 cup chopped onions
+2 cups vegetable stock
+1 cup green peas
+salt to taste
+1 1/2 cups sliced mushrooms (khumbh)
+1/4 cup fresh low fat curds (dahi)
+1/4 cup low fat milk
+2 tbsp chopped coriander (dhania) for garnishing</t>
+  </si>
+  <si>
+    <t>Method
+Heat a non-stick pan on a medium flame and when hot, add the ground paste.
+Cook while stirring continuously till it is light brown in colour. Sprinkle a little water if the paste burns.
+Add the onions and dry roast while stirring continuously till they turn translucent.
+Add ½ cup of vegetable stock to it and mix well till smooth. Keep aside.
+Heat a non-stick kadhai on a medium flame and when hot, add the peas, salt and the remaining vegetable stock.
+When it starts boiling, add the ground paste and simmer till the peas get cooked.
+Add the mushrooms, curds and milk and simmer for another 5 minutes.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-and-green-peas-curry-22197r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33764</t>
+  </si>
+  <si>
+    <t>Lettuce Wraps ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Diabetic Starters &amp; Snacks</t>
+  </si>
+  <si>
+    <t>For The Stuffing
+2 tsp oil
+2 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped galangal (thai ginger)
+1/4 cup chopped spring onions with the greens
+1/4 cup chopped mushrooms (khumbh)
+1/4 cup finely chopped carrots
+1/4 cup finely chopped cabbage
+1/4 cup chopped bean sprouts
+1/4 cup chopped tofu (bean curd/soya paneer)
+1/2 tsp lemon juice
+1 tsp soy sauce
+salt to taste
+1/4 tsp dry red chilli flakes (paprika)
+Other Ingredients
+6 lettuce leaves
+2 tbsp peanuts , roasted and coarsely ground
+2 tbsp finely chopped fresh basil leaves</t>
+  </si>
+  <si>
+    <t>Method
+For the stuffing
+Heat the oil in a non-stick kadhai, add the garlic, ginger and spring onions and sauté till the onions turn translucent.
+Add the mushrooms, carrots and cabbage, mix well and sauté on a medium flame for 2 to 3 minutes.
+Add the bean sprouts, tofu, lemon juice, soya sauce, salt and red chilli flakes, mix gently and saute on a medium flame for another minute.
+Divide the stuffing into 6 equal portions and keep aside.
+How to proceed
+Wash the lettuce leaves, dry them on a towel and keep aside.
+Place a lettuce leaf on a clean, flat surface and place a portion of the stuffing along one side of the leaf.
+Add ½ tsp of peanuts and ½ tsp of basil over the stuffing, roll it up gently and secure the roll by inserting a toothpick or tie using a spring onion green.
+Repeat with the remaining ingredients to make 5 more wraps.
+Serve immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-wraps--exotic-diabetic-recipe--33764r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33789</t>
+  </si>
+  <si>
+    <t>Walnut Vegetable Paté with Toasted Triangles ( Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>2 tsp olive oil
+3/4 cup finely chopped mixed vegetables (mushrooms , spring onions , carrot , etc.)
+1/4 cup chopped walnuts (akhrot)
+1 tsp chopped garlic (lehsun)
+1/2 tsp dried mixed herbs
+salt to taste
+For Serving
+8 toasted whole wheat bread , cut into triangles
+tabasco sauce
+a few lettuce leaves , torn into pieces
+4 cherry tomatoes , cut into halves</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick pan, add the mixed vegetables and sauté over a medium flame for 2 minutes.
+Remove from the flame, add the walnuts, garlic, mixed dried herbs and salt and blend in a mixer with a little water to get a grainy purée.
+For serving. Place a small lettuce leaf on each toasted triangle,spread little paté on each toasted triangle, top with few drops of tabasco sauce.
+Garnish with cherry tomatoes and serve immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Energy 89 cal
+Protein 2 g
+Carbohydrates 3 g
+Fiber 1.3 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 5.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/walnut-vegetable-pat%C3%A9-with-toasted-triangles--diabetic-recipe--33789r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33704</t>
+  </si>
+  <si>
+    <t>Sugar Free Date Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>Diabetic Desserts</t>
+  </si>
+  <si>
+    <t>1/2 tsp ghee
+3/4 cup deseeded and finely chopped black dates (kala khajur)
+1 tbsp chopped almonds (badam)
+1 tbsp chopped pistachios
+1 tbsp chopped walnuts (akhrot)
+2 tbsp poppy seeds (khus-khus) for coating</t>
+  </si>
+  <si>
+    <t>Method
+Heat the ghee in a small non-stick pan, add the dates and cook on a slow flame, while stirring continuously for 5 to 7 minutes or till they turn into a soft lump.
+Remove and add the almonds, pistachio nuts and walnuts and mix well.
+Divide into 6 equal portions and shape each portion into a roll.
+Coat each roll with poppy seeds and refrigerate to set.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Energy 79 cal
+Protein 1.6 g
+Carbohydrates 7.1 g
+Fiber 1.6 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sugar-free-date-rolls-healthy-diabetic-recipe-33704r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36139</t>
+  </si>
+  <si>
+    <t>Walnut and Cherry Tomato Salad, Quick Cherry Tomato Salad</t>
+  </si>
+  <si>
+    <t>Vitamin E Rich</t>
+  </si>
+  <si>
+    <t>For Walnut and Cherry Tomato Salad
+2 cups cherry tomatoes , cut into halves
+1/4 cup roughly chopped walnuts (akhrot)
+1/4 cup chopped capsicum
+1/2 cup basil leaves , torn into pieces
+2 tsp roasted sesame seeds (til)
+To Be Mixed Together Into A Dressing
+2 tsp olive oil
+2 tsp honey
+1 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For walnut and cherry tomato salad
+To make walnut and cherry tomato salad, combine the cherry tomatoes, walnuts, capsicum, basil leaves and sesame seeds in a bowl.
+Add the dressing and toss well.
+Serve the walnut and cherry tomato salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 113 cal
+Protein 2.3 g
+Carbohydrates 7.5 g
+Fiber 2 g
+Fat 8.3 g
+Cholesterol 0 mg
+Sodium 10.9 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothyroidism Recipes
+</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/walnut-and-cherry-tomato-salad-quick-cherry-tomato-salad-36139r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42134</t>
+  </si>
+  <si>
+    <t>Avocado Almond Milk Vegan Smoothie</t>
+  </si>
+  <si>
+    <t>B Vitamins</t>
+  </si>
+  <si>
+    <t>3/4 cup roughly chopped avocado
+1 1/2 cups readymade almond milk
+1/2 cup roughly chopped frozen bananas
+1 tbsp maple syrup</t>
+  </si>
+  <si>
+    <t>Energy 130 cal
+Protein 1.7 g
+Carbohydrates 16.4 g
+Fiber 3.7 g
+Fat 7 g
+Cholesterol 0 mg
+Sodium 48 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-almond-milk-vegan-smoothie-42134r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3274</t>
+  </si>
+  <si>
+    <t>Pasta Salad with Basil Vinaigrette</t>
+  </si>
+  <si>
+    <t>Italian Party</t>
+  </si>
+  <si>
+    <t>For Pasta Salad With Basil Vinaigrette
+1 1/4 cups cooked fusillii
+1/4 cup blanched , peeled and chopped tomatoes
+1/4 cup finely chopped walnuts (akhrot)
+2 tbsp finely chopped black olives
+1 processed cheese cube , cut into 6 pieces
+To Be Mixed Together Into A Basil Vinaigrette
+1 1/2 tbsp olive oil
+2 tbsp chopped fresh basil
+1 tsp finely chopped garlic (lehsun)
+1/2 tbsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For pasta salad with basil vinaigrette
+Combine the fusilli, tomatoes, walnuts, olives, prepared basil vinaigrette and salt and toss well.
+Add the cheese cubes and mix lightly.
+Refrigerate the pasta salad with basil vinaigrette for 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pasta-salad-with-basil-vinaigrette-3274r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38904</t>
+  </si>
+  <si>
+    <t>Bhindi in Peanut Masala</t>
+  </si>
+  <si>
+    <t>Kadai Veg</t>
+  </si>
+  <si>
+    <t>For Bhindi Peanut Masala
+2 cups chopped ladies finger (bhindi)
+1 tbsp coconut oil or oil
+a pinch of asafoetida (hing)
+salt to taste
+To Be Mixed Together For The Peanut Masala
+1/4 cup roasted and coarsely crushed peanuts
+1/4 cup grated coconut
+1/2 cup finely chopped coriander (dhania)
+1 1/2 tsp dried mango powder (amchur)
+1 tsp finely chopped green chillies
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp finely chopped garlic (lehsun)
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>Method
+For peanut masala
+To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.
+Bhindi in peanut masala
+To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.
+Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.
+Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
+Serve bhindi peanut masala recipe hot.</t>
+  </si>
+  <si>
+    <t>Energy 167 cal
+Protein 4.5 g
+Carbohydrates 6.5 g
+Fiber 4.1 g
+Fat 14.2 g
+Cholesterol 0 mg
+Sodium 9.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42781</t>
+  </si>
+  <si>
+    <t>Eggless Date and Almond Cake, Indian Healthy Cake</t>
+  </si>
+  <si>
+    <t>Indian Travel Food Sweets, Mithai</t>
+  </si>
+  <si>
+    <t>For Eggless Date and Almond Cake
+1 cup chopped dates (khajur)
+1/4 cup almonds (badam)
+1 cup whole wheat flour (gehun ka atta)
+1 cup quick cooking rolled oats
+1/2 tsp cinnamon (dalchini) powder
+1 tsp baking powder
+1/2 tsp cardamom (elaichi) powder
+1/2 tsp salt
+1/2 cup soft butter
+1/2 tsp vanilla essence
+1/2 cup almonds (badam) milk
+1/4 cup almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>Method
+For eggless date and almond cake
+To make eggless date and almond cake, combine the dates and ¼ cup of water in a small mixer jar and blend till smooth. Keep aside.
+Put the almonds in a small mixer jar and blend till smooth. Keep aside.
+Combine the whole wheat flour, oats, almond powder, cinnamon powder, baking powder, cardamom powder and salt and mix well. Keep aside.
+Put the butter in a deep bowl and using an electric beater, beat for 2 minutes.
+Add the dates puree and vanilla essence and beat again for 1 minute.
+Add the dry ingredients and almond milk and mix it well using a spatula.
+Transfer the mixture into a baking tray of 225 mm. X 125 mm. (9” x 5”) and tap it lightly.
+Sprinkle the almond slivers and press it lightly using your hands.
+Bake in a pre-heated oven at 180°c (360°f) for 25 minutes.
+Cool the date and almond cake with eggs slightly and demould the cake.
+Cut the eggless date and almond cake into 18 equal pieces and store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 132 cal
+Protein 2.9 g
+Carbohydrates 13.6 g
+Fiber 2.5 g
+Fat 7.8 g
+Cholesterol 11.8 mg
+Sodium 150.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/eggless-date-and-almond-cake-indian-healthy-cake-42781r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39896</t>
+  </si>
+  <si>
+    <t>Oats and Mixed Nuts Ladoo ( Healthy Laddu)</t>
+  </si>
+  <si>
+    <t>Diabetic recipes</t>
+  </si>
+  <si>
+    <t>For Oats and Mixed Nuts Ladoo
+1 cup quick cooking rolled oats
+1 tbsp finely chopped walnuts (akhrot)
+1 tbsp finely chopped almonds (badam)
+2 tbsp sesame seeds (til)
+2 tsp ghee
+2 tbsp chopped jaggery (gur)
+1/2 tsp cardamom (elaichi) powder
+2 tbsp low fat milk , 99.7% fat-free</t>
+  </si>
+  <si>
+    <t>Method
+For oats and mixed nuts ladoo
+To make oats and mixed nuts ladoo, heat a broad non-stick pan, add the oats and dry roast on a medium flame for 3 minutes. Remove and keep aside to cool completely.
+Heat the same broad non-stick pan, add the sesame seeds and dry roast them on a medium flame for 2 minutes. Keep aside to cool completely.
+Heat the ghee and jaggery in the same broad non-stick pan, mix well and cook on a slow flame for 1 minute, while stirring continuously.
+Transfer the jaggery mixture into a flat thali and allow it to cool slightly.
+Add the roasted oats, roasted sesame seeds, walnuts, almonds and cardamom powder and mix very well.
+Add the milk and mix very well.
+Divide the mixture into 8 equal portions and roll out each portion into a round ball.
+Serve the oats and mixed nuts ladoo immediately.</t>
+  </si>
+  <si>
+    <t>Energy 105 cal
+Protein 2.9 g
+Carbohydrates 11.8 g
+Fiber 1.7 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-mixed-nuts-ladoo--healthy-laddu-39896r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5303</t>
+  </si>
+  <si>
+    <t>Healthy Sheera</t>
+  </si>
+  <si>
+    <t>Janmashtami</t>
+  </si>
+  <si>
+    <t>For Healthy Sheera
+2 tbsp whole wheat flour (gehun ka atta)
+2 tbsp ragi (nachni / red millet) flour
+2 tbsp soy flour
+8 tsp grated jaggery (gur)
+1/2 tsp cardamom (elaichi) powder
+2 tsp coconut oil or ghee
+For The Garnish
+4 almonds (badam) , slivered
+2 tbsp chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>Method
+For healthy sheera
+To make healthy sheera, boil 1½ cups of water in a pan and add grated jaggery to it. Allow to simmer till the jaggery melts. Keep aside.
+Heat the oil in a non-stick pan, add whole wheat flour, ragi (nachni, red millet ) flour , soya flour and sauté until light brown in colour.
+Add the jaggery water and cardamom and mix well till no lumps remain.
+Cook on a slow flame for 3 minutes, while stirring continuously.
+Remove from the flame. Garnish with almonds, walnuts and pista.
+Serve the healthy sheera hot.</t>
+  </si>
+  <si>
+    <t>Energy 117 cal
+Protein 2.6 g
+Carbohydrates 18.9 g
+Fiber 1.4 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 1.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-sheera-5303r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34736</t>
+  </si>
+  <si>
+    <t>Zucchini Toast ( Healthy Starter Recipe )</t>
+  </si>
+  <si>
+    <t>Low Calorie Indian Snacks &amp; Starters</t>
+  </si>
+  <si>
+    <t>For The Zucchini Spread (makes Approx. 3/4 Cup)
+3/4 cup thickly grated zucchini (unpeeled)
+2 tbsp chopped parsley
+1/2 tbsp lemon juice
+1/4 tbsp olive oil
+1/4 tsp crushed garlic (lehsun)
+1/2 tsp green chilli paste
+salt and to taste
+1/2 tbsp chopped and roasted walnuts (akhrot)
+For Serving
+1 small whole wheat french bread loaf (cut into 8 slices)</t>
+  </si>
+  <si>
+    <t>Method
+For the zucchini spread
+Squeeze the zucchini with hands to remove the excess water.
+Combine all the ingredients, except the walnuts, and blend in a mixer to a smooth paste.
+Transfer the paste to a bowl, add the walnuts and mix well.
+Cover and refrigerate for at least an hour.
+Divide the spread into 8 equal portions and keep aside.
+How to proceed
+Just before serving, toast the bread slices in a sandwich griller till they are brown and crispy from both the sides.
+Apply a portion of the spread evenly over each bread slice.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 11 cal
+Protein 0.3 g
+Carbohydrates 0.8 g
+Fiber 0.2 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 1.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-toast--healthy-starter-recipe--34736r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42204</t>
+  </si>
+  <si>
+    <t>Apple Cinnamon and Oats Recipe with Almond Milk, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>Healthy Heart Breakfast</t>
+  </si>
+  <si>
+    <t>1/4 cup chopped apple (unpeeled)
+1/4 tsp cinnamon (dalchini) powder
+1/2 cup quick cooking rolled oats
+1 cup readymade almond milk
+1 1/2 tbsp finely chopped dates (khajur)
+1 tbsp chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the oats, almond milk, dates and cinnamon powder in a broad non-stick pan, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the apples and walnuts and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 159 cal
+Protein 5 g
+Carbohydrates 17.9 g
+Fiber 3.7 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 40.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cinnamon-and-oats-recipe-with-almond-milk-vegan-breakfast-42204r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39904</t>
+  </si>
+  <si>
+    <t>Paneer and Pesto Mini Pizza</t>
+  </si>
+  <si>
+    <t>Kids Pizzas</t>
+  </si>
+  <si>
+    <t>For The Pesto
+1/4 cup roughly chopped basil leaves
+1 1/2 tbsp roughly chopped walnuts (akhrot)
+1/2 tbsp finely chopped garlic (lehsun)
+1 tsp olive oil
+3 tsp olive oil
+salt to taste
+1/2 cup finely chopped capsicum (red and yellow)
+2 tbsp low-fat milk , 99.7% fat-free
+10 tsp grated low-fat paneer (cottage cheese)
+10 whole wheat (gehun) mini pizza bases
+For The Garnish
+1 tsp dry red chilli flakes (paprika)</t>
+  </si>
+  <si>
+    <t>Method
+For the pesto
+Combine the basil leaves, walnuts, garlic, 1 tsp of olive oil, salt and ¼ cup of water in a mixer and blend till smooth. Keep aside.
+Heat the remaining 2 tsp of olive oil in a broad non-stick pan, add the capsicum and sauté on a medium flame for 1 to 2 minutes. Keep aside.
+How to proceed
+Combine the pesto paste and milk in a broad non-stick pan, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Divide the mixture into 10 equal portions and keep aside.
+Place all the whole wheat pizza base on a baking tray and spread one portion of the pesto mixture on each pizza base.
+Sprinkle 1 tsp of low-fat paneer evenly over each pizza base.
+Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the base is brown.
+Serve immediately garnished with chilli flakes.</t>
+  </si>
+  <si>
+    <t>Energy 104 cal
+Protein 2.1 g
+Carbohydrates 12.4 g
+Fiber 0.2 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-and-pesto-mini-pizza-39904r</t>
+  </si>
+  <si>
+    <t>No of Recipes</t>
   </si>
 </sst>
 </file>
@@ -596,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:EQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -607,24 +2795,8 @@
     <col min="1" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:147" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -640,8 +2812,215 @@
       <c r="I2" t="s">
         <v>36</v>
       </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>320</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>326</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>332</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>338</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>345</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>353</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>227</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>359</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>365</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>373</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>118</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>387</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>394</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>189</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>401</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,8 +3036,215 @@
       <c r="I3" t="s">
         <v>37</v>
       </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>256</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>263</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>292</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>306</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>314</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>248</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>321</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>333</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>339</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>346</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>354</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>228</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>360</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>366</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>374</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>119</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>127</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>29</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>388</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>395</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>190</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>208</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>402</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>410</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -674,8 +3260,215 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>271</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>278</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>285</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>293</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>307</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>249</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>322</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>340</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>347</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>355</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>361</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>367</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>375</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>120</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>30</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>389</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>396</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>30</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>196</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>403</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>411</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -691,8 +3484,215 @@
       <c r="I5" t="s">
         <v>39</v>
       </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>265</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>286</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>294</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>301</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>316</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>323</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>329</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>334</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>341</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>348</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>356</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>229</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>362</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>368</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>13</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>376</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>121</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>128</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>390</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>397</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>191</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>209</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>404</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>412</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -706,10 +3706,217 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>78</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>122</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>78</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -723,10 +3930,217 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>287</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>14</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>70</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>405</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>243</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -740,10 +4154,217 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>230</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>259</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>273</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>280</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>288</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>295</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>302</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>309</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>151</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>317</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>198</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>252</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>324</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>330</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>335</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>342</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>349</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>230</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>363</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>370</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>16</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>377</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>384</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>25</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>123</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>33</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>391</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>398</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>192</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>210</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>406</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>413</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:147" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -757,10 +4378,217 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>274</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>281</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>289</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>296</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>303</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>116</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>152</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>318</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>199</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>336</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>343</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>350</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>357</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>231</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>371</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>26</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>124</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>392</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>399</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>407</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>414</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -774,10 +4602,217 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DO10" t="s">
         <v>18</v>
       </c>
+      <c r="DQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -791,7 +4826,438 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>254</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>282</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>290</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>304</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>153</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>319</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>200</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>254</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>325</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>331</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>337</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>344</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>352</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>358</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>232</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>364</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>372</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>125</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>132</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>393</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>400</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>193</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>408</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>415</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AE13">
+        <v>15</v>
+      </c>
+      <c r="AG13">
+        <v>16</v>
+      </c>
+      <c r="AI13">
+        <v>17</v>
+      </c>
+      <c r="AK13">
+        <v>18</v>
+      </c>
+      <c r="AM13">
+        <v>19</v>
+      </c>
+      <c r="AO13">
+        <v>20</v>
+      </c>
+      <c r="AQ13">
+        <v>21</v>
+      </c>
+      <c r="AS13">
+        <v>22</v>
+      </c>
+      <c r="AU13">
+        <v>23</v>
+      </c>
+      <c r="AW13">
+        <v>24</v>
+      </c>
+      <c r="AY13">
+        <v>25</v>
+      </c>
+      <c r="BA13">
+        <v>26</v>
+      </c>
+      <c r="BC13">
+        <v>27</v>
+      </c>
+      <c r="BE13">
+        <v>28</v>
+      </c>
+      <c r="BG13">
+        <v>29</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BK13">
+        <v>31</v>
+      </c>
+      <c r="BM13">
+        <v>32</v>
+      </c>
+      <c r="BO13">
+        <v>33</v>
+      </c>
+      <c r="BQ13">
+        <v>34</v>
+      </c>
+      <c r="BS13">
+        <v>35</v>
+      </c>
+      <c r="BU13">
+        <v>36</v>
+      </c>
+      <c r="BW13">
+        <v>37</v>
+      </c>
+      <c r="BY13">
+        <v>38</v>
+      </c>
+      <c r="CA13">
+        <v>39</v>
+      </c>
+      <c r="CC13">
+        <v>40</v>
+      </c>
+      <c r="CE13">
+        <v>41</v>
+      </c>
+      <c r="CG13">
+        <v>42</v>
+      </c>
+      <c r="CI13">
+        <v>43</v>
+      </c>
+      <c r="CK13">
         <v>44</v>
+      </c>
+      <c r="CM13">
+        <v>45</v>
+      </c>
+      <c r="CO13">
+        <v>46</v>
+      </c>
+      <c r="CQ13">
+        <v>47</v>
+      </c>
+      <c r="CS13">
+        <v>48</v>
+      </c>
+      <c r="CU13">
+        <v>49</v>
+      </c>
+      <c r="CW13">
+        <v>50</v>
+      </c>
+      <c r="CY13">
+        <v>51</v>
+      </c>
+      <c r="DA13">
+        <v>52</v>
+      </c>
+      <c r="DC13">
+        <v>53</v>
+      </c>
+      <c r="DE13">
+        <v>54</v>
+      </c>
+      <c r="DG13">
+        <v>55</v>
+      </c>
+      <c r="DI13">
+        <v>56</v>
+      </c>
+      <c r="DK13">
+        <v>57</v>
+      </c>
+      <c r="DM13">
+        <v>58</v>
+      </c>
+      <c r="DO13">
+        <v>59</v>
+      </c>
+      <c r="DQ13">
+        <v>60</v>
+      </c>
+      <c r="DS13">
+        <v>61</v>
+      </c>
+      <c r="DU13">
+        <v>62</v>
+      </c>
+      <c r="DW13">
+        <v>63</v>
+      </c>
+      <c r="DY13">
+        <v>64</v>
+      </c>
+      <c r="EA13">
+        <v>65</v>
+      </c>
+      <c r="EC13">
+        <v>66</v>
+      </c>
+      <c r="EE13">
+        <v>67</v>
+      </c>
+      <c r="EG13">
+        <v>68</v>
+      </c>
+      <c r="EI13">
+        <v>69</v>
+      </c>
+      <c r="EK13">
+        <v>70</v>
+      </c>
+      <c r="EM13">
+        <v>71</v>
+      </c>
+      <c r="EO13">
+        <v>72</v>
+      </c>
+      <c r="EQ13">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/NutsAllergyRecipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD003413-B839-4B31-BF09-340EFC47C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EAE505-9D44-4E53-A310-27BEF2446BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="410">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -2381,55 +2381,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/apple-cinnamon-and-oats-recipe-with-almond-milk-vegan-breakfast-42204r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39904</t>
-  </si>
-  <si>
-    <t>Paneer and Pesto Mini Pizza</t>
-  </si>
-  <si>
-    <t>Kids Pizzas</t>
-  </si>
-  <si>
-    <t>For The Pesto
-1/4 cup roughly chopped basil leaves
-1 1/2 tbsp roughly chopped walnuts (akhrot)
-1/2 tbsp finely chopped garlic (lehsun)
-1 tsp olive oil
-3 tsp olive oil
-salt to taste
-1/2 cup finely chopped capsicum (red and yellow)
-2 tbsp low-fat milk , 99.7% fat-free
-10 tsp grated low-fat paneer (cottage cheese)
-10 whole wheat (gehun) mini pizza bases
-For The Garnish
-1 tsp dry red chilli flakes (paprika)</t>
-  </si>
-  <si>
-    <t>Method
-For the pesto
-Combine the basil leaves, walnuts, garlic, 1 tsp of olive oil, salt and ¼ cup of water in a mixer and blend till smooth. Keep aside.
-Heat the remaining 2 tsp of olive oil in a broad non-stick pan, add the capsicum and sauté on a medium flame for 1 to 2 minutes. Keep aside.
-How to proceed
-Combine the pesto paste and milk in a broad non-stick pan, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
-Divide the mixture into 10 equal portions and keep aside.
-Place all the whole wheat pizza base on a baking tray and spread one portion of the pesto mixture on each pizza base.
-Sprinkle 1 tsp of low-fat paneer evenly over each pizza base.
-Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the base is brown.
-Serve immediately garnished with chilli flakes.</t>
-  </si>
-  <si>
-    <t>Energy 104 cal
-Protein 2.1 g
-Carbohydrates 12.4 g
-Fiber 0.2 g
-Fat 4.8 g
-Cholesterol 0 mg
-Sodium 14.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/paneer-and-pesto-mini-pizza-39904r</t>
   </si>
   <si>
     <t>No of Recipes</t>
@@ -2784,2480 +2735,2414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EQ13"/>
+  <dimension ref="A1:EN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="EN13" sqref="EN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="39" customWidth="1"/>
+    <col min="1" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AF2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="AP2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>320</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>326</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>332</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>338</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>345</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>353</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>359</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>365</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>373</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>387</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>394</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>189</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>401</v>
+      </c>
+      <c r="EL2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="EN2" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>247</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>276</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>283</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>291</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>305</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>313</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>194</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>320</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>326</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>332</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>338</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>345</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>353</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>227</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>359</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>365</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>10</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>373</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>118</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>126</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>28</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>387</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>394</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>207</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>401</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>409</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="AF3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="AP3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>299</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>306</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>314</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>321</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>333</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>346</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>354</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>228</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>360</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>366</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>374</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>119</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>29</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>388</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>395</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>190</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>208</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>402</v>
+      </c>
+      <c r="EL3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="EN3" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>228</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>270</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>277</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>299</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>306</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>314</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>321</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>327</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>333</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>339</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>346</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>354</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>228</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>360</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>366</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>11</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>374</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>381</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>21</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>119</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>29</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>395</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>208</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>402</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>410</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AF4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="AP4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>264</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>271</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>278</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>285</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>293</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>300</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>307</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>322</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>340</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>347</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>355</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>361</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>375</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>389</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>396</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>30</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>196</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>403</v>
+      </c>
+      <c r="EL4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="EN4" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>241</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>257</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>264</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>271</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>278</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>293</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>300</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>307</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>149</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>196</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>249</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>322</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>328</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>340</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>347</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>355</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>30</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>361</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>367</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>12</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>375</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>22</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>120</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>22</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>30</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>389</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>396</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>30</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>403</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>411</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="AF5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="AP5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>258</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>265</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>272</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>286</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>294</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>301</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>316</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>323</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>329</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>334</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>341</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>348</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>356</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>229</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>362</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>376</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>121</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>390</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>397</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>191</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>209</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>404</v>
+      </c>
+      <c r="EL5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="EN5" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>216</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>242</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>250</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>258</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>265</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>279</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>286</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>294</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>301</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>308</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>113</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>316</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>250</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>323</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>329</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>334</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>341</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>348</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>356</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>229</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>362</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>368</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>13</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>376</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>383</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>121</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>128</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>31</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>390</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>397</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>191</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>209</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>404</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>412</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="AB6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="AN6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
+      <c r="AR6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" t="s">
+      <c r="AT6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="BB6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD6" t="s">
         <v>14</v>
       </c>
-      <c r="S6" t="s">
+      <c r="BF6" t="s">
         <v>14</v>
       </c>
-      <c r="U6" t="s">
+      <c r="BH6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BV6" t="s">
         <v>78</v>
       </c>
-      <c r="W6" t="s">
+      <c r="BX6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF6" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="CH6" t="s">
         <v>55</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="CJ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD6" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="DF6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DN6" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="DP6" t="s">
         <v>14</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="DR6" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="DT6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DV6" t="s">
         <v>122</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="DX6" t="s">
         <v>129</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="DZ6" t="s">
         <v>32</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="EB6" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="ED6" t="s">
+        <v>78</v>
+      </c>
+      <c r="EF6" t="s">
         <v>14</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="EH6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="EL6" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW6" t="s">
+      <c r="EN6" t="s">
         <v>14</v>
       </c>
-      <c r="AY6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>129</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>55</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>78</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>78</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>122</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>129</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>78</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>14</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>14</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="7" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="Z7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="AB7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
+      <c r="AD7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>287</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>70</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>24</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>405</v>
+      </c>
+      <c r="EL7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="EN7" t="s">
         <v>24</v>
       </c>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>243</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>251</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>287</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>114</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>32</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>251</v>
-      </c>
-      <c r="CY7" t="s">
-        <v>78</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>14</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>369</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>15</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>24</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>24</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>24</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>14</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>24</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>70</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>24</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>405</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>243</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="AF8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="AP8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>244</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>273</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>280</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>288</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>295</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>302</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>317</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>198</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>252</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>324</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>330</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>335</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>342</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>349</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>230</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>363</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>370</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>377</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>384</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>25</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>123</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>33</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>391</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>398</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>210</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>406</v>
+      </c>
+      <c r="EL8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="EN8" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>192</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>217</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>224</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>230</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>236</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>244</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>259</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>266</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>280</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>288</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>295</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>302</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>309</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>115</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>151</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>317</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>198</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>252</v>
-      </c>
-      <c r="CY8" t="s">
-        <v>324</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>330</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>335</v>
-      </c>
-      <c r="DE8" t="s">
-        <v>342</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>349</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>230</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>363</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>370</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>16</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>377</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>384</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>25</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>33</v>
-      </c>
-      <c r="EE8" t="s">
-        <v>391</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>398</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>192</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>406</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>413</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="9" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="AF9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="AP9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>281</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>289</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>296</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>303</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>310</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>116</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>152</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>318</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>336</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>343</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>350</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>357</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>231</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>371</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>26</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>392</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>399</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>211</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>407</v>
+      </c>
+      <c r="EL9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" t="s">
-        <v>80</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="EN9" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>180</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>218</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>225</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>237</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>245</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>253</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>267</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>281</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>289</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>296</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>303</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>152</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>318</v>
-      </c>
-      <c r="CU9" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW9" t="s">
-        <v>253</v>
-      </c>
-      <c r="CY9" t="s">
-        <v>131</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>131</v>
-      </c>
-      <c r="DC9" t="s">
-        <v>336</v>
-      </c>
-      <c r="DE9" t="s">
-        <v>343</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>350</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>357</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>231</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>131</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>371</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>26</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>124</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>34</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>392</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>399</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>131</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>211</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>407</v>
-      </c>
-      <c r="EO9" t="s">
-        <v>414</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="10" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>311</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>42</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CW10" t="s">
-        <v>311</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>311</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>311</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>311</v>
-      </c>
-      <c r="DE10" t="s">
-        <v>311</v>
-      </c>
-      <c r="DG10" t="s">
+      <c r="DP10" t="s">
         <v>351</v>
       </c>
-      <c r="DI10" t="s">
+      <c r="DR10" t="s">
         <v>351</v>
       </c>
-      <c r="DK10" t="s">
+      <c r="DT10" t="s">
         <v>351</v>
       </c>
-      <c r="DM10" t="s">
+      <c r="DV10" t="s">
         <v>351</v>
       </c>
-      <c r="DO10" t="s">
+      <c r="DX10" t="s">
+        <v>351</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>351</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>351</v>
+      </c>
+      <c r="EL10" t="s">
         <v>18</v>
       </c>
-      <c r="DQ10" t="s">
+      <c r="EN10" t="s">
         <v>18</v>
       </c>
-      <c r="DS10" t="s">
-        <v>351</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>351</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>351</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>351</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="11" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
+      <c r="AF11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
+      <c r="AP11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>254</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>282</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>290</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>304</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>319</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>254</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>331</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>337</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>344</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>352</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>358</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>232</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>364</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>372</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>132</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>393</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>400</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>212</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>408</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>19</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:144" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <v>13</v>
+      </c>
+      <c r="AD13">
+        <v>14</v>
+      </c>
+      <c r="AF13">
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <v>16</v>
+      </c>
+      <c r="AJ13">
+        <v>17</v>
+      </c>
+      <c r="AL13">
+        <v>18</v>
+      </c>
+      <c r="AN13">
+        <v>19</v>
+      </c>
+      <c r="AP13">
+        <v>20</v>
+      </c>
+      <c r="AR13">
+        <v>21</v>
+      </c>
+      <c r="AT13">
+        <v>22</v>
+      </c>
+      <c r="AV13">
+        <v>23</v>
+      </c>
+      <c r="AX13">
+        <v>24</v>
+      </c>
+      <c r="AZ13">
+        <v>25</v>
+      </c>
+      <c r="BB13">
+        <v>26</v>
+      </c>
+      <c r="BD13">
+        <v>27</v>
+      </c>
+      <c r="BF13">
+        <v>28</v>
+      </c>
+      <c r="BH13">
+        <v>29</v>
+      </c>
+      <c r="BJ13">
+        <v>30</v>
+      </c>
+      <c r="BL13">
+        <v>31</v>
+      </c>
+      <c r="BN13">
+        <v>32</v>
+      </c>
+      <c r="BP13">
+        <v>33</v>
+      </c>
+      <c r="BR13">
+        <v>34</v>
+      </c>
+      <c r="BT13">
+        <v>35</v>
+      </c>
+      <c r="BV13">
+        <v>36</v>
+      </c>
+      <c r="BX13">
+        <v>37</v>
+      </c>
+      <c r="BZ13">
+        <v>38</v>
+      </c>
+      <c r="CB13">
+        <v>39</v>
+      </c>
+      <c r="CD13">
+        <v>40</v>
+      </c>
+      <c r="CF13">
+        <v>41</v>
+      </c>
+      <c r="CH13">
+        <v>42</v>
+      </c>
+      <c r="CJ13">
         <v>43</v>
       </c>
-      <c r="K11" t="s">
+      <c r="CL13">
+        <v>44</v>
+      </c>
+      <c r="CN13">
+        <v>45</v>
+      </c>
+      <c r="CP13">
+        <v>46</v>
+      </c>
+      <c r="CR13">
+        <v>47</v>
+      </c>
+      <c r="CT13">
+        <v>48</v>
+      </c>
+      <c r="CV13">
+        <v>49</v>
+      </c>
+      <c r="CX13">
         <v>50</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="CZ13">
+        <v>51</v>
+      </c>
+      <c r="DB13">
+        <v>52</v>
+      </c>
+      <c r="DD13">
+        <v>53</v>
+      </c>
+      <c r="DF13">
+        <v>54</v>
+      </c>
+      <c r="DH13">
+        <v>55</v>
+      </c>
+      <c r="DJ13">
+        <v>56</v>
+      </c>
+      <c r="DL13">
+        <v>57</v>
+      </c>
+      <c r="DN13">
         <v>58</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="DP13">
+        <v>59</v>
+      </c>
+      <c r="DR13">
+        <v>60</v>
+      </c>
+      <c r="DT13">
+        <v>61</v>
+      </c>
+      <c r="DV13">
+        <v>62</v>
+      </c>
+      <c r="DX13">
+        <v>63</v>
+      </c>
+      <c r="DZ13">
+        <v>64</v>
+      </c>
+      <c r="EB13">
         <v>65</v>
       </c>
-      <c r="S11" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" t="s">
-        <v>81</v>
-      </c>
-      <c r="W11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>188</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>193</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>232</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>238</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>246</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>254</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>261</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>268</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>290</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>297</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>304</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>312</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>153</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU11" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>254</v>
-      </c>
-      <c r="CY11" t="s">
-        <v>325</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>331</v>
-      </c>
-      <c r="DC11" t="s">
-        <v>337</v>
-      </c>
-      <c r="DE11" t="s">
-        <v>344</v>
-      </c>
-      <c r="DG11" t="s">
-        <v>352</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>358</v>
-      </c>
-      <c r="DK11" t="s">
-        <v>232</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>364</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>372</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>19</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>27</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>125</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>132</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>35</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>393</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>400</v>
-      </c>
-      <c r="EI11" t="s">
-        <v>193</v>
-      </c>
-      <c r="EK11" t="s">
-        <v>212</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>408</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>415</v>
-      </c>
-      <c r="EQ11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:147" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="S13">
-        <v>9</v>
-      </c>
-      <c r="U13">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>11</v>
-      </c>
-      <c r="Y13">
-        <v>12</v>
-      </c>
-      <c r="AA13">
-        <v>13</v>
-      </c>
-      <c r="AC13">
-        <v>14</v>
-      </c>
-      <c r="AE13">
-        <v>15</v>
-      </c>
-      <c r="AG13">
-        <v>16</v>
-      </c>
-      <c r="AI13">
-        <v>17</v>
-      </c>
-      <c r="AK13">
-        <v>18</v>
-      </c>
-      <c r="AM13">
-        <v>19</v>
-      </c>
-      <c r="AO13">
-        <v>20</v>
-      </c>
-      <c r="AQ13">
-        <v>21</v>
-      </c>
-      <c r="AS13">
-        <v>22</v>
-      </c>
-      <c r="AU13">
-        <v>23</v>
-      </c>
-      <c r="AW13">
-        <v>24</v>
-      </c>
-      <c r="AY13">
-        <v>25</v>
-      </c>
-      <c r="BA13">
-        <v>26</v>
-      </c>
-      <c r="BC13">
-        <v>27</v>
-      </c>
-      <c r="BE13">
-        <v>28</v>
-      </c>
-      <c r="BG13">
-        <v>29</v>
-      </c>
-      <c r="BI13">
-        <v>30</v>
-      </c>
-      <c r="BK13">
-        <v>31</v>
-      </c>
-      <c r="BM13">
-        <v>32</v>
-      </c>
-      <c r="BO13">
-        <v>33</v>
-      </c>
-      <c r="BQ13">
-        <v>34</v>
-      </c>
-      <c r="BS13">
-        <v>35</v>
-      </c>
-      <c r="BU13">
-        <v>36</v>
-      </c>
-      <c r="BW13">
-        <v>37</v>
-      </c>
-      <c r="BY13">
-        <v>38</v>
-      </c>
-      <c r="CA13">
-        <v>39</v>
-      </c>
-      <c r="CC13">
-        <v>40</v>
-      </c>
-      <c r="CE13">
-        <v>41</v>
-      </c>
-      <c r="CG13">
-        <v>42</v>
-      </c>
-      <c r="CI13">
-        <v>43</v>
-      </c>
-      <c r="CK13">
-        <v>44</v>
-      </c>
-      <c r="CM13">
-        <v>45</v>
-      </c>
-      <c r="CO13">
-        <v>46</v>
-      </c>
-      <c r="CQ13">
-        <v>47</v>
-      </c>
-      <c r="CS13">
-        <v>48</v>
-      </c>
-      <c r="CU13">
-        <v>49</v>
-      </c>
-      <c r="CW13">
-        <v>50</v>
-      </c>
-      <c r="CY13">
-        <v>51</v>
-      </c>
-      <c r="DA13">
-        <v>52</v>
-      </c>
-      <c r="DC13">
-        <v>53</v>
-      </c>
-      <c r="DE13">
-        <v>54</v>
-      </c>
-      <c r="DG13">
-        <v>55</v>
-      </c>
-      <c r="DI13">
-        <v>56</v>
-      </c>
-      <c r="DK13">
-        <v>57</v>
-      </c>
-      <c r="DM13">
-        <v>58</v>
-      </c>
-      <c r="DO13">
-        <v>59</v>
-      </c>
-      <c r="DQ13">
-        <v>60</v>
-      </c>
-      <c r="DS13">
-        <v>61</v>
-      </c>
-      <c r="DU13">
-        <v>62</v>
-      </c>
-      <c r="DW13">
-        <v>63</v>
-      </c>
-      <c r="DY13">
-        <v>64</v>
-      </c>
-      <c r="EA13">
-        <v>65</v>
-      </c>
-      <c r="EC13">
+      <c r="ED13">
         <v>66</v>
       </c>
-      <c r="EE13">
+      <c r="EF13">
         <v>67</v>
       </c>
-      <c r="EG13">
+      <c r="EH13">
         <v>68</v>
       </c>
-      <c r="EI13">
+      <c r="EJ13">
         <v>69</v>
       </c>
-      <c r="EK13">
+      <c r="EL13">
         <v>70</v>
       </c>
-      <c r="EM13">
+      <c r="EN13">
         <v>71</v>
-      </c>
-      <c r="EO13">
-        <v>72</v>
-      </c>
-      <c r="EQ13">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
